--- a/POC Task's Mulesoft.xlsx
+++ b/POC Task's Mulesoft.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847464BD-CE51-4286-9276-C6FD89AB2FC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8104DD2-F24B-42E5-906F-33DDDC106195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>S.No.</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>21/12/22</t>
+  </si>
+  <si>
+    <t>Will do</t>
   </si>
 </sst>
 </file>
@@ -752,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D6" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -806,7 +809,9 @@
       <c r="F2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
@@ -827,7 +832,9 @@
       <c r="F3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
@@ -842,11 +849,15 @@
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6">
+        <v>12</v>
+      </c>
       <c r="F4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
